--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="std" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>متوسط قیمت دلار متشکل (تومان)</t>
   </si>
@@ -69,13 +69,16 @@
     <t>کمترین قیمت دلار (تومان)</t>
   </si>
   <si>
-    <t>انحراف کعیار قیمت دلار (تومان)</t>
-  </si>
-  <si>
     <t>بیشترین قیمت دلار (تومان)</t>
   </si>
   <si>
     <t>میانگین قیمت دلار (تومان)</t>
+  </si>
+  <si>
+    <t>شهریور</t>
+  </si>
+  <si>
+    <t>انحراف معیار قیمت دلار (تومان)</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,6 @@
                   <c:v>مرداد</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -784,6 +786,139 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>شهریور</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$6:$J$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$6,Sheet1!$F$6,Sheet1!$H$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -795,12 +930,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="594497888"/>
-        <c:axId val="594491904"/>
+        <c:axId val="-1263720688"/>
+        <c:axId val="-1263720144"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="594497888"/>
+        <c:axId val="-1263720688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594491904"/>
+        <c:crossAx val="-1263720144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="594491904"/>
+        <c:axId val="-1263720144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594497888"/>
+        <c:crossAx val="-1263720688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,7 +1618,6 @@
                   <c:v>مرداد</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1605,6 +1739,139 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>شهریور</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$6:$J$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$6,Sheet1!$G$6,Sheet1!$I$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1616,12 +1883,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="594499520"/>
-        <c:axId val="594485376"/>
+        <c:axId val="-1263719600"/>
+        <c:axId val="-1263719056"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="594499520"/>
+        <c:axId val="-1263719600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,7 +1931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594485376"/>
+        <c:crossAx val="-1263719056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,7 +1939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="594485376"/>
+        <c:axId val="-1263719056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594499520"/>
+        <c:crossAx val="-1263719600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2279,7 +2546,6 @@
                   <c:v>مرداد</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2395,6 +2661,133 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>شهریور</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$6:$J$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$6,Sheet1!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>206358300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26007000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -2406,12 +2799,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="594488640"/>
-        <c:axId val="373164864"/>
+        <c:axId val="-1263718512"/>
+        <c:axId val="-1263716336"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="594488640"/>
+        <c:axId val="-1263718512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2454,7 +2847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373164864"/>
+        <c:crossAx val="-1263716336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2462,7 +2855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373164864"/>
+        <c:axId val="-1263716336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594488640"/>
+        <c:crossAx val="-1263718512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,16 +4620,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1698048</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77931</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4258,15 +4651,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>131619</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136814</xdr:rowOff>
+      <xdr:colOff>1398443</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1700645</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>132051</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>885824</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>103476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4289,16 +4682,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>530802</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>83995</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1445202</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4587,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,9 +5154,35 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>26504</v>
+      </c>
+      <c r="C6">
+        <v>206358300</v>
+      </c>
+      <c r="D6">
+        <v>31234</v>
+      </c>
+      <c r="E6">
+        <v>26007000</v>
+      </c>
       <c r="F6">
-        <f>(E2-E4)/E2</f>
-        <v>0.77301333129649386</v>
+        <v>26792</v>
+      </c>
+      <c r="G6">
+        <v>31542</v>
+      </c>
+      <c r="H6">
+        <v>27432</v>
+      </c>
+      <c r="I6">
+        <v>32393</v>
+      </c>
+      <c r="J6">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4786,10 +5205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,16 +5222,16 @@
     <row r="1" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4881,6 +5300,23 @@
       </c>
       <c r="E5" s="3">
         <v>629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27432</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28260</v>
+      </c>
+      <c r="D6" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E6" s="3">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -217,7 +217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -318,7 +317,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -451,7 +449,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -584,7 +581,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -717,7 +713,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -850,7 +845,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -930,12 +924,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1263720688"/>
-        <c:axId val="-1263720144"/>
+        <c:axId val="-1175069856"/>
+        <c:axId val="-1175068768"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1263720688"/>
+        <c:axId val="-1175069856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263720144"/>
+        <c:crossAx val="-1175068768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1263720144"/>
+        <c:axId val="-1175068768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263720688"/>
+        <c:crossAx val="-1175069856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,7 +1045,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1271,7 +1264,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1404,7 +1396,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1537,7 +1528,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1670,7 +1660,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1803,7 +1792,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1883,12 +1871,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1263719600"/>
-        <c:axId val="-1263719056"/>
+        <c:axId val="-878500048"/>
+        <c:axId val="-878498960"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1263719600"/>
+        <c:axId val="-878500048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263719056"/>
+        <c:crossAx val="-878498960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1263719056"/>
+        <c:axId val="-878498960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263719600"/>
+        <c:crossAx val="-878500048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,7 +1992,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2116,7 +2103,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,7 +2203,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2344,7 +2329,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2471,7 +2455,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2598,7 +2581,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2725,7 +2707,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2799,12 +2780,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1263718512"/>
-        <c:axId val="-1263716336"/>
+        <c:axId val="-878498416"/>
+        <c:axId val="-878504400"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1263718512"/>
+        <c:axId val="-878498416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,7 +2828,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263716336"/>
+        <c:crossAx val="-878504400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2855,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1263716336"/>
+        <c:axId val="-878504400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,7 +2887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1263718512"/>
+        <c:crossAx val="-878498416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,7 +2901,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5208,7 +5188,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>متوسط قیمت دلار متشکل (تومان)</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>انحراف معیار قیمت دلار (تومان)</t>
+  </si>
+  <si>
+    <t>مهر</t>
   </si>
 </sst>
 </file>
@@ -217,6 +220,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -317,6 +321,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -449,6 +454,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -581,6 +587,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -713,6 +720,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -845,6 +853,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -913,6 +922,139 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>مهر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$7:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$7,Sheet1!$F$7,Sheet1!$H$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -924,12 +1066,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1175069856"/>
-        <c:axId val="-1175068768"/>
+        <c:axId val="609326128"/>
+        <c:axId val="609320144"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1175069856"/>
+        <c:axId val="609326128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1175068768"/>
+        <c:crossAx val="609320144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1175068768"/>
+        <c:axId val="609320144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1175069856"/>
+        <c:crossAx val="609326128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,6 +1187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,6 +1407,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1396,6 +1540,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1528,6 +1673,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1660,6 +1806,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1792,6 +1939,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1860,6 +2008,139 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>مهر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$7:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$7,Sheet1!$G$7,Sheet1!$I$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1871,12 +2152,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-878500048"/>
-        <c:axId val="-878498960"/>
+        <c:axId val="609321232"/>
+        <c:axId val="609321776"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-878500048"/>
+        <c:axId val="609321232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,7 +2200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878498960"/>
+        <c:crossAx val="609321776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1927,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-878498960"/>
+        <c:axId val="609321776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,7 +2259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878500048"/>
+        <c:crossAx val="609321232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1992,6 +2273,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2103,6 +2385,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2156,6 +2439,767 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$2:$J$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$2,Sheet1!$E$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>127796800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36658100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>خرداد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$3:$J$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$3,Sheet1!$E$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>171280800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14823700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>تیر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$4:$J$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$4,Sheet1!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>111014500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8320900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>مرداد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$5:$J$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$5,Sheet1!$E$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>107764700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13828400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>شهریور</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$6:$J$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$6,Sheet1!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>206358300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26007000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>مهر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$7:$J$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$7,Sheet1!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>170570500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23660100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2247,524 +3291,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$J$2</c15:sqref>
+                    <c15:sqref>Sheet1!$B$8:$J$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$2,Sheet1!$E$2)</c:f>
+              <c:f>(Sheet1!$C$8,Sheet1!$E$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>127796800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36658100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>خرداد</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>حجم عرضه دلار متشکل </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>حجم عرضه یورو  متشکل</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$J$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$3,Sheet1!$E$3)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>171280800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14823700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>تیر</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>حجم عرضه دلار متشکل </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>حجم عرضه یورو  متشکل</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$4:$J$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$4,Sheet1!$E$4)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>111014500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8320900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>مرداد</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>حجم عرضه دلار متشکل </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>حجم عرضه یورو  متشکل</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$5:$J$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$5,Sheet1!$E$5)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>107764700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13828400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>شهریور</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>حجم عرضه دلار متشکل </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>حجم عرضه یورو  متشکل</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$J$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$6,Sheet1!$E$6)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>206358300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26007000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2780,12 +3314,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-878498416"/>
-        <c:axId val="-878504400"/>
+        <c:axId val="609311984"/>
+        <c:axId val="609322320"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-878498416"/>
+        <c:axId val="609311984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2828,7 +3362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878504400"/>
+        <c:crossAx val="609322320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2836,7 +3370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-878504400"/>
+        <c:axId val="609322320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,7 +3421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-878498416"/>
+        <c:crossAx val="609311984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2901,6 +3435,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4600,16 +5135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4631,15 +5166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1398443</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1133476</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>885824</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>103476</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4663,15 +5198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1445202</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>179245</xdr:rowOff>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4961,7 +5496,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,6 +5700,38 @@
         <v>320</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>26733</v>
+      </c>
+      <c r="C7">
+        <v>170570500</v>
+      </c>
+      <c r="D7">
+        <v>30773</v>
+      </c>
+      <c r="E7">
+        <v>23660100</v>
+      </c>
+      <c r="F7">
+        <v>27056</v>
+      </c>
+      <c r="G7">
+        <v>31313</v>
+      </c>
+      <c r="H7">
+        <v>27596</v>
+      </c>
+      <c r="I7">
+        <v>32065</v>
+      </c>
+      <c r="J7">
+        <v>405</v>
+      </c>
+    </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9">
         <f>(H3-H2)/H2</f>
@@ -5185,10 +5752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,6 +5866,23 @@
         <v>320</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>27596</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28390</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27020</v>
+      </c>
+      <c r="E7" s="3">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,12 +1066,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="609326128"/>
-        <c:axId val="609320144"/>
+        <c:axId val="-195995568"/>
+        <c:axId val="-195990672"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="609326128"/>
+        <c:axId val="-195995568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609320144"/>
+        <c:crossAx val="-195990672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609320144"/>
+        <c:axId val="-195990672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609326128"/>
+        <c:crossAx val="-195995568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2152,12 +2152,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="609321232"/>
-        <c:axId val="609321776"/>
+        <c:axId val="-195995024"/>
+        <c:axId val="-195994480"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="609321232"/>
+        <c:axId val="-195995024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609321776"/>
+        <c:crossAx val="-195994480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609321776"/>
+        <c:axId val="-195994480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609321232"/>
+        <c:crossAx val="-195995024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3314,12 +3314,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="609311984"/>
-        <c:axId val="609322320"/>
+        <c:axId val="-195993936"/>
+        <c:axId val="-195986864"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="609311984"/>
+        <c:axId val="-195993936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,7 +3362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609322320"/>
+        <c:crossAx val="-195986864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609322320"/>
+        <c:axId val="-195986864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609311984"/>
+        <c:crossAx val="-195993936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,6 +5739,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>C7+C6</f>
+        <v>376928800</v>
+      </c>
+      <c r="E10">
+        <f>C5+C4</f>
+        <v>218779200</v>
+      </c>
       <c r="H10">
         <f>(H4-H3)/H3</f>
         <v>4.1303890641430072E-2</v>
@@ -5754,7 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>متوسط قیمت دلار متشکل (تومان)</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>مهر</t>
+  </si>
+  <si>
+    <t>آبان</t>
   </si>
 </sst>
 </file>
@@ -1055,6 +1058,141 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آبان</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$8:$J$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$8,Sheet1!$F$8,Sheet1!$H$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1066,12 +1204,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-195995568"/>
-        <c:axId val="-195990672"/>
+        <c:axId val="-1646000432"/>
+        <c:axId val="-1371025344"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-195995568"/>
+        <c:axId val="-1646000432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195990672"/>
+        <c:crossAx val="-1371025344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-195990672"/>
+        <c:axId val="-1371025344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195995568"/>
+        <c:crossAx val="-1646000432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,6 +2279,141 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آبان</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$8:$J$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$8,Sheet1!$G$8,Sheet1!$I$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -2152,12 +2425,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-195995024"/>
-        <c:axId val="-195994480"/>
+        <c:axId val="-1371022080"/>
+        <c:axId val="-1371026432"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-195995024"/>
+        <c:axId val="-1371022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195994480"/>
+        <c:crossAx val="-1371026432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-195994480"/>
+        <c:axId val="-1371026432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195995024"/>
+        <c:crossAx val="-1371022080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3192,6 +3465,9 @@
               <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آبان</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3247,6 +3523,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3299,6 +3576,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>250390300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33484100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3314,12 +3597,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-195993936"/>
-        <c:axId val="-195986864"/>
+        <c:axId val="-1371030240"/>
+        <c:axId val="-1371021536"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-195993936"/>
+        <c:axId val="-1371030240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,7 +3645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195986864"/>
+        <c:crossAx val="-1371021536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-195986864"/>
+        <c:axId val="-1371021536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195993936"/>
+        <c:crossAx val="-1371030240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5495,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5732,10 +6015,36 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9">
-        <f>(H3-H2)/H2</f>
-        <v>4.4825313117996042E-2</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>26848</v>
+      </c>
+      <c r="C8">
+        <v>250390300</v>
+      </c>
+      <c r="D8">
+        <v>30900</v>
+      </c>
+      <c r="E8">
+        <v>33484100</v>
+      </c>
+      <c r="F8">
+        <v>27121</v>
+      </c>
+      <c r="G8">
+        <v>31234</v>
+      </c>
+      <c r="H8">
+        <v>27950</v>
+      </c>
+      <c r="I8">
+        <v>32126</v>
+      </c>
+      <c r="J8">
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5746,10 +6055,6 @@
       <c r="E10">
         <f>C5+C4</f>
         <v>218779200</v>
-      </c>
-      <c r="H10">
-        <f>(H4-H3)/H3</f>
-        <v>4.1303890641430072E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5760,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,6 +6196,23 @@
         <v>405</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>27950</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28720</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27440</v>
+      </c>
+      <c r="E8" s="3">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -1204,12 +1204,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1646000432"/>
-        <c:axId val="-1371025344"/>
+        <c:axId val="-1425042400"/>
+        <c:axId val="-1715264800"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1646000432"/>
+        <c:axId val="-1425042400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371025344"/>
+        <c:crossAx val="-1715264800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371025344"/>
+        <c:axId val="-1715264800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1646000432"/>
+        <c:crossAx val="-1425042400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1545,7 +1545,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1678,7 +1677,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1811,7 +1809,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1944,7 +1941,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2077,7 +2073,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2210,7 +2205,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2345,7 +2339,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2425,12 +2418,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1371022080"/>
-        <c:axId val="-1371026432"/>
+        <c:axId val="-1538795552"/>
+        <c:axId val="-1715262080"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1371022080"/>
+        <c:axId val="-1538795552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +2466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371026432"/>
+        <c:crossAx val="-1715262080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2481,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371026432"/>
+        <c:axId val="-1715262080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371022080"/>
+        <c:crossAx val="-1538795552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2546,7 +2539,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2658,7 +2650,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2759,7 +2750,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2886,7 +2876,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3013,7 +3002,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3140,7 +3128,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3267,7 +3254,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3394,7 +3380,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3523,7 +3508,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3597,12 +3581,12 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1371030240"/>
-        <c:axId val="-1371021536"/>
+        <c:axId val="-1399498448"/>
+        <c:axId val="-1399488112"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1371030240"/>
+        <c:axId val="-1399498448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,7 +3629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371021536"/>
+        <c:crossAx val="-1399488112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3653,7 +3637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1371021536"/>
+        <c:axId val="-1399488112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,7 +3688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1371030240"/>
+        <c:crossAx val="-1399498448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3718,7 +3702,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5779,7 +5762,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C6A89-9BFF-4E46-93A2-7A00B065E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="std" sheetId="2" r:id="rId2"/>
+    <sheet name="seasonal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>متوسط قیمت دلار متشکل (تومان)</t>
   </si>
@@ -86,11 +95,47 @@
   <si>
     <t>آبان</t>
   </si>
+  <si>
+    <t>آذر</t>
+  </si>
+  <si>
+    <t>تابستان</t>
+  </si>
+  <si>
+    <t>پاییز</t>
+  </si>
+  <si>
+    <t>قیمت دلار متشکل</t>
+  </si>
+  <si>
+    <t>قیمت دلار سنا</t>
+  </si>
+  <si>
+    <t>قیمت یورو متشکل</t>
+  </si>
+  <si>
+    <t>قیمت یورو سنا</t>
+  </si>
+  <si>
+    <t>تغییر متشکل نسبت به فصل قبل</t>
+  </si>
+  <si>
+    <t>عرضه یورو در بازار متشکل</t>
+  </si>
+  <si>
+    <t>عرضه دلار در بازار متشکل</t>
+  </si>
+  <si>
+    <t>تغییر عرضه دلار نسبت به فصل قبل</t>
+  </si>
+  <si>
+    <t>تغییر عرضه یورو نسبت به فصل قبل</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +196,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -171,7 +225,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -223,7 +277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -324,7 +377,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -352,17 +404,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -376,22 +425,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$2,Sheet1!$F$2,Sheet1!$H$2)</c:f>
+              <c:f>(Sheet1!$B$2,Sheet1!$F$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>22032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22353</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -457,7 +508,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -485,17 +535,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -509,22 +556,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$3,Sheet1!$F$3,Sheet1!$H$3)</c:f>
+              <c:f>(Sheet1!$B$3,Sheet1!$F$3)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>23028</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -590,7 +639,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -618,17 +666,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -642,22 +687,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$4,Sheet1!$F$4,Sheet1!$H$4)</c:f>
+              <c:f>(Sheet1!$B$4,Sheet1!$F$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>24167</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -723,7 +770,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -751,17 +797,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,22 +818,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$5,Sheet1!$F$5,Sheet1!$H$5)</c:f>
+              <c:f>(Sheet1!$B$5,Sheet1!$F$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>25016</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -856,7 +901,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -884,17 +928,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -908,22 +949,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$6,Sheet1!$F$6,Sheet1!$H$6)</c:f>
+              <c:f>(Sheet1!$B$6,Sheet1!$F$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>26504</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -989,7 +1032,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1017,17 +1059,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1041,22 +1080,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$7,Sheet1!$F$7,Sheet1!$H$7)</c:f>
+              <c:f>(Sheet1!$B$7,Sheet1!$F$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>26733</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27056</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1124,7 +1165,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1152,17 +1192,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$F$1,Sheet1!$H$1)</c:f>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت بازار دلار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1176,22 +1213,157 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$8,Sheet1!$F$8,Sheet1!$H$8)</c:f>
+              <c:f>(Sheet1!$B$8,Sheet1!$F$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>26848</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آذر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$9:$J$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$9,Sheet1!$F$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -1325,7 +1497,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1393,7 +1564,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1572,17 +1743,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1596,22 +1764,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$2,Sheet1!$G$2,Sheet1!$I$2)</c:f>
+              <c:f>(Sheet1!$D$2,Sheet1!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>26659</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1704,17 +1874,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,22 +1895,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$3,Sheet1!$G$3,Sheet1!$I$3)</c:f>
+              <c:f>(Sheet1!$D$3,Sheet1!$G$3)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>27913</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28202</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1836,17 +2005,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1860,22 +2026,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$4,Sheet1!$G$4,Sheet1!$I$4)</c:f>
+              <c:f>(Sheet1!$D$4,Sheet1!$G$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>28641</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29141</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1968,17 +2136,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1992,22 +2157,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$5,Sheet1!$G$5,Sheet1!$I$5)</c:f>
+              <c:f>(Sheet1!$D$5,Sheet1!$G$5)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>29333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2100,17 +2267,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2124,22 +2288,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$6,Sheet1!$G$6,Sheet1!$I$6)</c:f>
+              <c:f>(Sheet1!$D$6,Sheet1!$G$6)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>31234</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2232,17 +2398,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2256,22 +2419,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$7,Sheet1!$G$7,Sheet1!$I$7)</c:f>
+              <c:f>(Sheet1!$D$7,Sheet1!$G$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>30773</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31313</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2366,17 +2531,14 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$1,Sheet1!$G$1,Sheet1!$I$1)</c:f>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>متوسط قیمت یورو بازار آزاد (تومان)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2390,22 +2552,157 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$8,Sheet1!$G$8,Sheet1!$I$8)</c:f>
+              <c:f>(Sheet1!$D$8,Sheet1!$G$8)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>30900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31234</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آذر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$9:$J$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$9,Sheet1!$G$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -2606,7 +2903,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2811,6 +3108,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2937,6 +3239,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3063,6 +3370,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3189,6 +3501,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3315,6 +3632,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3441,6 +3763,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3569,6 +3896,144 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>آذر</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$1,Sheet1!$E$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>حجم عرضه دلار متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>حجم عرضه یورو  متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$9:$J$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$9,Sheet1!$E$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>213419600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15425400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A88F-41C6-B7B0-B101E62BBAFD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -5414,7 +5879,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5438,13 +5909,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>27276</xdr:rowOff>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5476,7 +5953,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5758,26 +6241,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5806,7 +6289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5838,7 +6321,7 @@
         <v>934.63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5870,7 +6353,7 @@
         <v>429.75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5902,7 +6385,7 @@
         <v>352.99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -5934,7 +6417,7 @@
         <v>628.74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5966,7 +6449,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5998,7 +6481,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6030,7 +6513,39 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>27141</v>
+      </c>
+      <c r="C9">
+        <v>213419600</v>
+      </c>
+      <c r="D9">
+        <v>31009</v>
+      </c>
+      <c r="E9">
+        <v>15425400</v>
+      </c>
+      <c r="F9">
+        <v>27356</v>
+      </c>
+      <c r="G9">
+        <v>31330</v>
+      </c>
+      <c r="H9">
+        <v>29828</v>
+      </c>
+      <c r="I9">
+        <v>33581</v>
+      </c>
+      <c r="J9">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>C7+C6</f>
         <v>376928800</v>
@@ -6038,6 +6553,28 @@
       <c r="E10">
         <f>C5+C4</f>
         <v>218779200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>(B9-B2)/B2</f>
+        <v>0.23188997821350762</v>
+      </c>
+      <c r="F12">
+        <f>(F9-F2)/F2</f>
+        <v>0.22381783205833669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>(D9/B9)</f>
+        <v>1.1425150141851812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>(D6/B6)</f>
+        <v>1.1784636281316028</v>
       </c>
     </row>
   </sheetData>
@@ -6047,22 +6584,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -6077,7 +6614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +6631,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6111,7 +6648,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -6128,7 +6665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -6145,7 +6682,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -6162,7 +6699,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -6179,7 +6716,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -6194,6 +6731,172 @@
       </c>
       <c r="E8" s="3">
         <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>29828</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30920</v>
+      </c>
+      <c r="D9" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A703CC3-6AFF-4AF3-B400-1D40618DBAE5}">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25538</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25649</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>26916</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27185</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30254</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30307</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30882</v>
+      </c>
+      <c r="C10" s="3">
+        <v>31292</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>433414000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>48820200</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>634380400</v>
+      </c>
+      <c r="C17" s="3">
+        <v>72569600</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>

--- a/monthly.xlsx
+++ b/monthly.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7C6A89-9BFF-4E46-93A2-7A00B065E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40FAEF5-421D-4C3A-92CA-AB63B70A1039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11244" yWindow="2496" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="std" sheetId="2" r:id="rId2"/>
     <sheet name="seasonal" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>متوسط قیمت دلار متشکل (تومان)</t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>تغییر عرضه یورو نسبت به فصل قبل</t>
   </si>
+  <si>
+    <t>دی</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +186,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1362,6 +1379,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-8A62-4750-9CE5-CEC14EA90E1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>دی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$1,Sheet1!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت دلار متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$10:$J$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$10,Sheet1!$F$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A176-497E-ADEC-A265DFEDD628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2701,6 +2851,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-54C6-40D9-96DF-BF89A4518DA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>دی</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$1,Sheet1!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>متوسط قیمت یورو متشکل (تومان)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا (تومان)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$10:$J$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$D$10,Sheet1!$G$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>29780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A2A-4BCB-B189-8990B80C6A80}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6244,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6546,13 +6829,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>26392</v>
+      </c>
       <c r="D10">
-        <f>C7+C6</f>
-        <v>376928800</v>
-      </c>
-      <c r="E10">
-        <f>C5+C4</f>
-        <v>218779200</v>
+        <v>29780</v>
+      </c>
+      <c r="F10">
+        <v>26650</v>
+      </c>
+      <c r="G10">
+        <v>30005</v>
+      </c>
+      <c r="H10">
+        <v>28789</v>
+      </c>
+      <c r="I10">
+        <v>32745</v>
+      </c>
+      <c r="J10">
+        <v>1009</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -6585,10 +6884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6750,6 +7049,23 @@
         <v>694</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
+        <v>28789</v>
+      </c>
+      <c r="C10" s="7">
+        <v>30340</v>
+      </c>
+      <c r="D10" s="7">
+        <v>27400</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6759,8 +7075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A703CC3-6AFF-4AF3-B400-1D40618DBAE5}">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
